--- a/src/apodeixi/knowledge_base/tests_integration/results_data/basic_posting_flows.big_rocks.explained/shutil_store/bre_ledger.T10_form                LedgerPro.big-rocks.journeys.a6i.xlsx
+++ b/src/apodeixi/knowledge_base/tests_integration/results_data/basic_posting_flows.big_rocks.explained/shutil_store/bre_ledger.T10_form                LedgerPro.big-rocks.journeys.a6i.xlsx
@@ -23,7 +23,7 @@
     <t>organization</t>
   </si>
   <si>
-    <t>environment</t>
+    <t>knowledgeBase</t>
   </si>
   <si>
     <t>recordedBy</t>

--- a/src/apodeixi/knowledge_base/tests_integration/results_data/basic_posting_flows.big_rocks.explained/shutil_store/bre_ledger.T10_form                LedgerPro.big-rocks.journeys.a6i.xlsx
+++ b/src/apodeixi/knowledge_base/tests_integration/results_data/basic_posting_flows.big_rocks.explained/shutil_store/bre_ledger.T10_form                LedgerPro.big-rocks.journeys.a6i.xlsx
@@ -44,21 +44,21 @@
     <t>journey</t>
   </si>
   <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>scoringCycle</t>
+  </si>
+  <si>
+    <t>scoringMaturity</t>
+  </si>
+  <si>
     <t>planType</t>
   </si>
   <si>
     <t>variant</t>
   </si>
   <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>scoringCycle</t>
-  </si>
-  <si>
-    <t>scoringMaturity</t>
-  </si>
-  <si>
     <t>priorVersion.1</t>
   </si>
   <si>
@@ -101,19 +101,19 @@
     <t>Modernization</t>
   </si>
   <si>
+    <t>OfficialPlan</t>
+  </si>
+  <si>
+    <t>Dec 2020</t>
+  </si>
+  <si>
+    <t>Committed</t>
+  </si>
+  <si>
     <t>Marathon</t>
   </si>
   <si>
     <t>explained</t>
-  </si>
-  <si>
-    <t>OfficialPlan</t>
-  </si>
-  <si>
-    <t>Dec 2020</t>
-  </si>
-  <si>
-    <t>Committed</t>
   </si>
   <si>
     <t>big-rock</t>
@@ -911,7 +911,7 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -927,7 +927,7 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
